--- a/StructureDefinition-profile-Contract.xlsx
+++ b/StructureDefinition-profile-Contract.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7741796-06:00</t>
+    <t>2026-02-20T11:59:20.7699033-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Contract|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Contract</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>legallyBinding</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.legallyBinding|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.legallyBinding}
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
     <t>contentDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.contentDefinition|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.contentDefinition}
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
     <t>term</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.term|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.term}
 </t>
   </si>
   <si>
@@ -1446,7 +1446,7 @@
     <t>The type of decision made by a grantor with respect to an offer made by a grantee.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActConsentDirective|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActConsentDirective</t>
   </si>
   <si>
     <t>ActCode: _ActConsentDirective [abstract term] Description: Specifies the type of agreement between one or more grantor and grantee in which rights and obligations related to one or more shared items of interest are allocated. Usage Note: Such agreements may be considered "consent directives" or "contracts" depending on the context, and are considered closely related or synonymous from a legal perspective.</t>
@@ -2062,7 +2062,7 @@
     <t>Detailed codes for the contract action reason.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -2311,7 +2311,7 @@
     <t>signer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.signer|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.signer}
 </t>
   </si>
   <si>
@@ -2404,7 +2404,7 @@
     <t>friendly</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.friendly|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.friendly}
 </t>
   </si>
   <si>
@@ -2454,7 +2454,7 @@
     <t>legal</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.legal|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.legal}
 </t>
   </si>
   <si>
@@ -2500,7 +2500,7 @@
     <t>rule</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.rule|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Contract.rule}
 </t>
   </si>
   <si>
@@ -2894,7 +2894,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="110.73046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.65234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.55859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
